--- a/biology/Botanique/Forêt_classée_de_Diamarakro/Forêt_classée_de_Diamarakro.xlsx
+++ b/biology/Botanique/Forêt_classée_de_Diamarakro/Forêt_classée_de_Diamarakro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Diamarakro</t>
+          <t>Forêt_classée_de_Diamarakro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt classée de Diamarakro est une forêt classée de l'est de la Côte d'Ivoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Diamarakro</t>
+          <t>Forêt_classée_de_Diamarakro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, des planteurs illégaux de la forêt saccagent des locaux de la Sodefor situés à Abengourou[1].
-En 2021, le couvert forestier est menacé par les activités de centaines d'orpailleurs illégaux, ce qui a conduit la brigade verte du Ministère des Eaux et Forêts à intervenir afin de les chasser[2]. Huit orpailleurs illégaux sont arrêtés et sept motopompes sont saisies[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, des planteurs illégaux de la forêt saccagent des locaux de la Sodefor situés à Abengourou.
+En 2021, le couvert forestier est menacé par les activités de centaines d'orpailleurs illégaux, ce qui a conduit la brigade verte du Ministère des Eaux et Forêts à intervenir afin de les chasser. Huit orpailleurs illégaux sont arrêtés et sept motopompes sont saisies.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Diamarakro</t>
+          <t>Forêt_classée_de_Diamarakro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, le chercheur Soulemane Ouattara et son équipe préconisent la création d'un corridor biologique entre la réserve naturelle de Bossématié et la forêt classée de  Diamarakro afin de limiter la consanguinité des éléphants de Bossémiaté[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, le chercheur Soulemane Ouattara et son équipe préconisent la création d'un corridor biologique entre la réserve naturelle de Bossématié et la forêt classée de  Diamarakro afin de limiter la consanguinité des éléphants de Bossémiaté.
 </t>
         </is>
       </c>
